--- a/carbonFootprintCalcDrivevsFly.xlsx
+++ b/carbonFootprintCalcDrivevsFly.xlsx
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Car</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Question: Is it more carbon friendly to drive rather than fly to NY?</t>
   </si>
   <si>
-    <t>CO2 absorbtion time by a fully grown tree</t>
-  </si>
-  <si>
     <t>Source: https://www.fueleconomy.gov/feg/bymodel/2011_Mazda_3.shtml</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>Car mileage (kpl)</t>
+  </si>
+  <si>
+    <t>CO2 absorbtion time by a 15 ft wide sugar maple tree</t>
+  </si>
+  <si>
+    <t>Source: http://www.ecosmartlandscapes.org - need to create an account to calculate sequesteration rates of different types of trees</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -362,6 +365,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -445,7 +449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -880,7 +884,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,13 +912,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="15">
         <v>741</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -927,7 +931,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="18"/>
     </row>
@@ -989,7 +993,7 @@
         <v>130</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1005,7 +1009,7 @@
       </c>
       <c r="C18" s="11">
         <f>B12/Constants!A21</f>
-        <v>5.9463004425872148</v>
+        <v>2.8542242124418631</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>57</v>
@@ -1017,7 +1021,7 @@
       </c>
       <c r="C19" s="11">
         <f>B15/Constants!A21</f>
-        <v>5.9720690922454978</v>
+        <v>2.8665931642778388</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>57</v>
@@ -1034,8 +1038,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,93 +1273,97 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="16"/>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>A20*0.4535</f>
-        <v>21.768000000000001</v>
+        <v>45.35</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="23" spans="1:6">
+      <c r="A23" s="23">
         <f>A20/12</f>
-        <v>4</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="24" spans="1:6">
+      <c r="A24" s="23">
         <f>A21/12</f>
-        <v>1.8140000000000001</v>
+        <v>3.7791666666666668</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="9">
         <f>A20/365</f>
-        <v>0.13150684931506848</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="9">
         <f>A21/365</f>
-        <v>5.9638356164383566E-2</v>
+        <v>0.12424657534246576</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>13.60570673712021</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>4</v>
       </c>
